--- a/Verification_data.xlsx
+++ b/Verification_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udesc-my.sharepoint.com/personal/08573384980_edu_udesc_br/Documents/UDESC/TCC/Blade_Element_Prop_Calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_AD4D361C20488DEA4E38A09044D953C65BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48A0BBA-92E0-4E4B-8EC1-7AB4377D3F18}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="11_AD4D361C20488DEA4E38A09044D953C65BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32784429-322A-4D9B-B91C-EE46D13CE8EC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>r</t>
   </si>
@@ -82,12 +82,54 @@
   <si>
     <t>r/R</t>
   </si>
+  <si>
+    <t>thurst</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Cl linearirado</t>
+  </si>
+  <si>
+    <t>Cd linearizado</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>r [ft]</t>
+  </si>
+  <si>
+    <t>r[m]</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>a'</t>
+  </si>
+  <si>
+    <t>Literatura</t>
+  </si>
+  <si>
+    <t>Calculado</t>
+  </si>
+  <si>
+    <t>Posição</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +145,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,14 +170,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,27 +216,4363 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6739230482487065E-2"/>
+          <c:y val="7.3868882733148664E-2"/>
+          <c:w val="0.88393965331593027"/>
+          <c:h val="0.8421132607731513"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cl</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$A$40:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2328042328042299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2539682539682602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4761904761904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$B$40:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.334728033472803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74058577405857695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1087866108786599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2510460251046001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0FF-4329-875A-63C771901D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$D$40:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0211640211640098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3597883597883609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.1587301587301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$E$40:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6736401673639899E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9288702928869901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7656903765690398E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1841004184100403E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0FF-4329-875A-63C771901D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1683781999"/>
+        <c:axId val="1683779919"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1683781999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683779919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1683779919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683781999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Literatura</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31158260869565219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44928695652173911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58695652173913038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72462608695652175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86233043478260862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$N$4:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>54.811599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.363799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.766100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.7927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.7971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.9619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.568199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A050-41BF-AE01-D8413AA42B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Calculado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31158260869565219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44928695652173911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58695652173913038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72462608695652175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86233043478260862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$Q$4:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>54.808539479790397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.360455450939398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.7639926100093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.790971624112998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.7958945385456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.961020856742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.586452794944901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A050-41BF-AE01-D8413AA42B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="984780735"/>
+        <c:axId val="984785535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="984780735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>r/R</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984785535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="984785535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>phi [graus]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984780735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Literatura</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31158260869565219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44928695652173911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58695652173913038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72462608695652175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86233043478260862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$O$4:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.4799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3799999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8833-416B-8A80-6B59021B1116}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Calculado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31158260869565219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44928695652173911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58695652173913038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72462608695652175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86233043478260862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$R$4:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.33087158122954E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2814354297126507E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9087049135955406E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7806558910872204E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2813050518084694E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5892800800678302E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8833-416B-8A80-6B59021B1116}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="984780735"/>
+        <c:axId val="984785535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="984780735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>r/R</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984785535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="984785535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>a</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984780735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Literatura</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31158260869565219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44928695652173911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58695652173913038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72462608695652175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86233043478260862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$P$4:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.3299999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41EE-48F4-86AA-EA496AB3F9DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Calculado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31158260869565219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44928695652173911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58695652173913038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72462608695652175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86233043478260862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$S$4:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.44739382266587E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7764421577759402E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3060091834671202E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5170977972972699E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.06539058869179E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8751580272458897E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-41EE-48F4-86AA-EA496AB3F9DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="984780735"/>
+        <c:axId val="984785535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="984780735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>r/R</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984785535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="984785535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>a'</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984780735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>93345</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>67627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>103822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7B8304-4E13-DDB5-9D7A-1CFB4FD4A2A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>65088</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>515368</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>89980</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF750319-C22B-B5CE-9131-4C9C917A61A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3571BD5F-9064-F584-7926-919BF7066BA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -174,21 +4581,133 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6377940" y="247968"/>
-          <a:ext cx="6329428" cy="2768092"/>
+          <a:off x="114300" y="3581400"/>
+          <a:ext cx="7597140" cy="3081017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{447D2793-1B1D-FEB3-1E05-1DCD6FDCED8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300C62E5-9836-4736-82BC-4F2CBC72AE0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FD2151-8CD4-42BD-B12E-6A3A38F552DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -457,10 +4976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M22"/>
+  <dimension ref="A2:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +4988,7 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -485,8 +5004,23 @@
       <c r="F2">
         <v>2</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -505,8 +5039,35 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.89580000000000004</v>
       </c>
@@ -525,8 +5086,37 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
+      <c r="K4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="2">
+        <f>K4*0.3048</f>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <f>L4/$L$10</f>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="N4" s="2">
+        <v>54.811599999999999</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>54.808539479790397</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3.33087158122954E-2</v>
+      </c>
+      <c r="S4" s="2">
+        <v>6.44739382266587E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.2917000000000001</v>
       </c>
@@ -542,8 +5132,37 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
+      <c r="K5" s="2">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L10" si="0">K5*0.3048</f>
+        <v>0.27303984000000003</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M10" si="1">L5/$L$10</f>
+        <v>0.31158260869565219</v>
+      </c>
+      <c r="N5" s="2">
+        <v>38.363799999999998</v>
+      </c>
+      <c r="O5" s="2">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>38.360455450939398</v>
+      </c>
+      <c r="R5" s="2">
+        <v>6.2814354297126507E-2</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3.7764421577759402E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.6875</v>
       </c>
@@ -562,8 +5181,37 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
+      <c r="K6" s="2">
+        <v>1.2917000000000001</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39371016000000003</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44928695652173911</v>
+      </c>
+      <c r="N6" s="2">
+        <v>28.766100000000002</v>
+      </c>
+      <c r="O6" s="2">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>28.7639926100093</v>
+      </c>
+      <c r="R6" s="2">
+        <v>7.9087049135955406E-2</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2.3060091834671202E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.0832999999999999</v>
       </c>
@@ -579,8 +5227,37 @@
       <c r="F7">
         <v>2400</v>
       </c>
+      <c r="K7" s="2">
+        <v>1.6875</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51434999999999997</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58695652173913038</v>
+      </c>
+      <c r="N7" s="2">
+        <v>22.7927</v>
+      </c>
+      <c r="O7" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>22.790971624112998</v>
+      </c>
+      <c r="R7" s="2">
+        <v>8.7806558910872204E-2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1.5170977972972699E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.4792000000000001</v>
       </c>
@@ -590,8 +5267,46 @@
       <c r="C8">
         <v>15.9619</v>
       </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>207.61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2.0832999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.63498984000000003</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.72462608695652175</v>
+      </c>
+      <c r="N8" s="2">
+        <v>18.7971</v>
+      </c>
+      <c r="O8" s="2">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>18.7958945385456</v>
+      </c>
+      <c r="R8" s="2">
+        <v>9.2813050518084694E-2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1.06539058869179E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.875</v>
       </c>
@@ -601,8 +5316,68 @@
       <c r="C9">
         <v>13.8552</v>
       </c>
+      <c r="K9" s="2">
+        <v>2.4792000000000001</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75566016000000003</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.86233043478260862</v>
+      </c>
+      <c r="N9" s="2">
+        <v>15.9619</v>
+      </c>
+      <c r="O9" s="2">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>15.961020856742</v>
+      </c>
+      <c r="R9" s="2">
+        <v>9.5892800800678302E-2</v>
+      </c>
+      <c r="S9" s="2">
+        <v>7.8751580272458897E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K10" s="2">
+        <v>2.875</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.87630000000000008</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>12.568199999999999</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>12.586452794944901</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -622,7 +5397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>A3*0.3048</f>
         <v>0.15240000000000001</v>
@@ -650,21 +5425,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" ref="A14:B20" si="0">A4*0.3048</f>
+        <f t="shared" ref="A14:B19" si="2">A4*0.3048</f>
         <v>0.27303984000000003</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14036040000000002</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C19" si="1">C4</f>
+        <f t="shared" ref="C14:C19" si="3">C4</f>
         <v>41.8645</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D19" si="2">A14/($F$14/2)</f>
+        <f t="shared" ref="D14:D19" si="4">A14/($F$14/2)</f>
         <v>0.31158260869565219</v>
       </c>
       <c r="E14" t="s">
@@ -678,21 +5453,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.39371016000000003</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13011912</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32.2669</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.44928695652173911</v>
       </c>
       <c r="E15" t="s">
@@ -703,21 +5478,21 @@
         <v>NACA4415</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.51434999999999997</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10878312</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.297799999999999</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58695652173913038</v>
       </c>
       <c r="E16" t="s">
@@ -733,19 +5508,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63498984000000003</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.5222080000000006E-2</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18.7971</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.72462608695652175</v>
       </c>
       <c r="E17" t="s">
@@ -758,47 +5533,129 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.75566016000000003</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.8308240000000004E-2</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.9619</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.86233043478260862</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <f>F8*4.44822</f>
+        <v>923.49495420000005</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.87630000000000008</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.8552</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>0.86995999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F22" s="2"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0.334728033472803</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1.6736401673639899E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4.2328042328042299</v>
+      </c>
+      <c r="B41">
+        <v>0.74058577405857695</v>
+      </c>
+      <c r="D41">
+        <v>4.0211640211640098</v>
+      </c>
+      <c r="E41">
+        <v>2.9288702928869901E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>8.2539682539682602</v>
+      </c>
+      <c r="B42">
+        <v>1.1087866108786599</v>
+      </c>
+      <c r="D42">
+        <v>8.3597883597883609</v>
+      </c>
+      <c r="E42">
+        <v>3.7656903765690398E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>10.4761904761904</v>
+      </c>
+      <c r="B43">
+        <v>1.2510460251046001</v>
+      </c>
+      <c r="D43">
+        <v>10.1587301587301</v>
+      </c>
+      <c r="E43">
+        <v>4.1841004184100403E-2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Verification_data.xlsx
+++ b/Verification_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udesc-my.sharepoint.com/personal/08573384980_edu_udesc_br/Documents/UDESC/TCC/Blade_Element_Prop_Calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="11_AD4D361C20488DEA4E38A09044D953C65BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32784429-322A-4D9B-B91C-EE46D13CE8EC}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="11_AD4D361C20488DEA4E38A09044D953C65BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44ADE1E9-4012-4954-B6F8-C672BC22669C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -699,7 +699,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Literatura</c:v>
+            <c:v>Adkins&amp;Liebeck</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -794,7 +794,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Calculado</c:v>
+            <c:v>OptProp(Blade Element Function)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -938,7 +938,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>r/R</a:t>
                 </a:r>
               </a:p>
@@ -995,16 +998,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -1055,7 +1058,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>phi [graus]</a:t>
                 </a:r>
               </a:p>
@@ -1112,16 +1118,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -1154,16 +1160,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-BR"/>
@@ -1238,7 +1244,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Literatura</c:v>
+            <c:v>Adkins&amp;Liebeck</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1333,7 +1339,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Calculado</c:v>
+            <c:v>OptProp(Blade Element Function)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1464,16 +1470,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1496,16 +1502,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -1534,16 +1540,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -1581,16 +1587,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1613,16 +1619,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -1651,16 +1657,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -1693,16 +1699,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-BR"/>
@@ -1740,7 +1746,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -1777,7 +1786,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Literatura</c:v>
+            <c:v>Adkins&amp;Liebeck</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1872,7 +1881,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Calculado</c:v>
+            <c:v>OptProp(Blade Element Function)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2016,7 +2025,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>r/R</a:t>
                 </a:r>
               </a:p>
@@ -2073,16 +2085,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -2133,7 +2145,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>a'</a:t>
                 </a:r>
               </a:p>
@@ -2190,16 +2205,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -2232,16 +2247,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-BR"/>
@@ -4636,16 +4651,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4675,15 +4690,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4978,8 +4993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Verification_data.xlsx
+++ b/Verification_data.xlsx
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="265" documentId="11_AD4D361C20488DEA4E38A09044D953C65BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44ADE1E9-4012-4954-B6F8-C672BC22669C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="35820" yWindow="3180" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4993,8 +4993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
